--- a/Metrics_RuleBasedAlgorithms.xlsx
+++ b/Metrics_RuleBasedAlgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eithanenaje/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADA6F68-7E0D-CD4F-8355-4514F9BEE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF89A45-8063-AE4B-9981-61C700F1CC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{3D817440-58FF-F040-A860-6FBF7293013A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="21">
   <si>
     <t>TP</t>
   </si>
@@ -85,12 +85,27 @@
   <si>
     <t>2nd Rule-based AI Algorithm Results (Enhanced Formula)</t>
   </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Accuracy:</t>
+  </si>
+  <si>
+    <t>F1 Score:</t>
+  </si>
+  <si>
+    <t>Recall:</t>
+  </si>
+  <si>
+    <t>Precision:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +124,26 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,21 +167,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,71 +526,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D317980-B6CD-0747-B8F5-FEADDBD2C8CF}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -617,39 +660,39 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="I4" s="5">
+      <c r="G4" s="4"/>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="Q4" s="5">
+      <c r="O4" s="4"/>
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="W4">
@@ -657,7 +700,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -669,8 +712,8 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="I5" s="5">
+      <c r="G5" s="4"/>
+      <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" t="s">
@@ -682,8 +725,8 @@
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="Q5" s="5">
+      <c r="O5" s="4"/>
+      <c r="Q5" s="2">
         <v>2</v>
       </c>
       <c r="R5" t="s">
@@ -697,7 +740,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -709,8 +752,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="I6" s="5">
+      <c r="G6" s="4"/>
+      <c r="I6" s="2">
         <v>3</v>
       </c>
       <c r="J6" t="s">
@@ -722,8 +765,8 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="Q6" s="5">
+      <c r="O6" s="4"/>
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
       <c r="R6" t="s">
@@ -737,7 +780,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -749,8 +792,8 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="I7" s="5">
+      <c r="G7" s="4"/>
+      <c r="I7" s="2">
         <v>4</v>
       </c>
       <c r="J7" t="s">
@@ -759,10 +802,10 @@
       <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>4</v>
       </c>
       <c r="R7" t="s">
@@ -776,7 +819,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -788,8 +831,8 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="I8" s="5">
+      <c r="G8" s="4"/>
+      <c r="I8" s="2">
         <v>5</v>
       </c>
       <c r="J8" t="s">
@@ -798,10 +841,10 @@
       <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
         <v>5</v>
       </c>
       <c r="R8" t="s">
@@ -815,39 +858,39 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="I9" s="5">
+      <c r="G9" s="4"/>
+      <c r="I9" s="2">
         <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="Q9" s="5">
+      <c r="O9" s="4"/>
+      <c r="Q9" s="2">
         <v>6</v>
       </c>
       <c r="R9" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="U9">
@@ -855,7 +898,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -867,8 +910,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="I10" s="5">
+      <c r="G10" s="4"/>
+      <c r="I10" s="2">
         <v>7</v>
       </c>
       <c r="J10" t="s">
@@ -880,8 +923,8 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="Q10" s="5">
+      <c r="O10" s="4"/>
+      <c r="Q10" s="2">
         <v>7</v>
       </c>
       <c r="R10" t="s">
@@ -895,7 +938,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -907,8 +950,8 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="I11" s="5">
+      <c r="G11" s="4"/>
+      <c r="I11" s="2">
         <v>8</v>
       </c>
       <c r="J11" t="s">
@@ -920,8 +963,8 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="Q11" s="5">
+      <c r="O11" s="4"/>
+      <c r="Q11" s="2">
         <v>8</v>
       </c>
       <c r="R11" t="s">
@@ -935,7 +978,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -947,8 +990,8 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="I12" s="5">
+      <c r="G12" s="4"/>
+      <c r="I12" s="2">
         <v>9</v>
       </c>
       <c r="J12" t="s">
@@ -960,8 +1003,8 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="Q12" s="5">
+      <c r="O12" s="4"/>
+      <c r="Q12" s="2">
         <v>9</v>
       </c>
       <c r="R12" t="s">
@@ -975,7 +1018,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -987,8 +1030,8 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="I13" s="5">
+      <c r="G13" s="4"/>
+      <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="J13" t="s">
@@ -1000,8 +1043,8 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="Q13" s="5">
+      <c r="O13" s="4"/>
+      <c r="Q13" s="2">
         <v>10</v>
       </c>
       <c r="R13" t="s">
@@ -1015,39 +1058,39 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="I14" s="5">
+      <c r="G14" s="4"/>
+      <c r="I14" s="2">
         <v>11</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="Q14" s="5">
+      <c r="O14" s="4"/>
+      <c r="Q14" s="2">
         <v>11</v>
       </c>
       <c r="R14" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="W14">
@@ -1055,7 +1098,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -1067,8 +1110,8 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="I15" s="5">
+      <c r="G15" s="4"/>
+      <c r="I15" s="2">
         <v>12</v>
       </c>
       <c r="J15" t="s">
@@ -1080,8 +1123,8 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="Q15" s="5">
+      <c r="O15" s="4"/>
+      <c r="Q15" s="2">
         <v>12</v>
       </c>
       <c r="R15" t="s">
@@ -1095,7 +1138,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -1107,8 +1150,8 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="I16" s="5">
+      <c r="G16" s="4"/>
+      <c r="I16" s="2">
         <v>13</v>
       </c>
       <c r="J16" t="s">
@@ -1120,8 +1163,8 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="Q16" s="5">
+      <c r="O16" s="4"/>
+      <c r="Q16" s="2">
         <v>13</v>
       </c>
       <c r="R16" t="s">
@@ -1135,7 +1178,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -1147,8 +1190,8 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="I17" s="5">
+      <c r="G17" s="4"/>
+      <c r="I17" s="2">
         <v>14</v>
       </c>
       <c r="J17" t="s">
@@ -1160,8 +1203,8 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="Q17" s="5">
+      <c r="O17" s="4"/>
+      <c r="Q17" s="2">
         <v>14</v>
       </c>
       <c r="R17" t="s">
@@ -1175,7 +1218,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" t="s">
@@ -1187,8 +1230,8 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="I18" s="5">
+      <c r="G18" s="4"/>
+      <c r="I18" s="2">
         <v>15</v>
       </c>
       <c r="J18" t="s">
@@ -1200,8 +1243,8 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="Q18" s="5">
+      <c r="O18" s="4"/>
+      <c r="Q18" s="2">
         <v>15</v>
       </c>
       <c r="R18" t="s">
@@ -1215,39 +1258,39 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="I19" s="5">
+      <c r="G19" s="4"/>
+      <c r="I19" s="2">
         <v>16</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="Q19" s="5">
+      <c r="O19" s="4"/>
+      <c r="Q19" s="2">
         <v>16</v>
       </c>
       <c r="R19" t="s">
         <v>11</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="W19">
@@ -1255,7 +1298,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -1267,8 +1310,8 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="I20" s="5">
+      <c r="G20" s="4"/>
+      <c r="I20" s="2">
         <v>17</v>
       </c>
       <c r="J20" t="s">
@@ -1277,10 +1320,10 @@
       <c r="K20" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5">
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
         <v>17</v>
       </c>
       <c r="R20" t="s">
@@ -1294,7 +1337,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" t="s">
@@ -1306,8 +1349,8 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="I21" s="5">
+      <c r="G21" s="4"/>
+      <c r="I21" s="2">
         <v>18</v>
       </c>
       <c r="J21" t="s">
@@ -1316,10 +1359,10 @@
       <c r="K21" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="O21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
         <v>18</v>
       </c>
       <c r="R21" t="s">
@@ -1333,7 +1376,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -1345,8 +1388,8 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="I22" s="5">
+      <c r="G22" s="4"/>
+      <c r="I22" s="2">
         <v>19</v>
       </c>
       <c r="J22" t="s">
@@ -1358,8 +1401,8 @@
       <c r="M22">
         <v>1</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="Q22" s="5">
+      <c r="O22" s="4"/>
+      <c r="Q22" s="2">
         <v>19</v>
       </c>
       <c r="R22" t="s">
@@ -1373,7 +1416,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" t="s">
@@ -1385,8 +1428,8 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="I23" s="5">
+      <c r="G23" s="4"/>
+      <c r="I23" s="2">
         <v>20</v>
       </c>
       <c r="J23" t="s">
@@ -1398,8 +1441,8 @@
       <c r="M23">
         <v>1</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="Q23" s="5">
+      <c r="O23" s="4"/>
+      <c r="Q23" s="2">
         <v>20</v>
       </c>
       <c r="R23" t="s">
@@ -1413,7 +1456,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D24">
@@ -1425,10 +1468,10 @@
       <c r="F24">
         <v>17</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L24">
@@ -1440,10 +1483,10 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="4">
         <v>4</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T24">
@@ -1459,63 +1502,186 @@
         <v>13</v>
       </c>
     </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="Q25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" s="8"/>
+      <c r="W26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27">
+        <v>0.26</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="3" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="3" t="s">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1585,39 +1751,39 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="I31" s="5">
+      <c r="G31" s="4"/>
+      <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="Q31" s="5">
+      <c r="O31" s="4"/>
+      <c r="Q31" s="2">
         <v>1</v>
       </c>
       <c r="R31" t="s">
         <v>11</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="W31">
@@ -1625,7 +1791,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>2</v>
       </c>
       <c r="B32" t="s">
@@ -1637,8 +1803,8 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="I32" s="5">
+      <c r="G32" s="4"/>
+      <c r="I32" s="2">
         <v>2</v>
       </c>
       <c r="J32" t="s">
@@ -1650,8 +1816,8 @@
       <c r="M32">
         <v>1</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="Q32" s="5">
+      <c r="O32" s="4"/>
+      <c r="Q32" s="2">
         <v>2</v>
       </c>
       <c r="R32" t="s">
@@ -1665,7 +1831,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>3</v>
       </c>
       <c r="B33" t="s">
@@ -1677,8 +1843,8 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="I33" s="5">
+      <c r="G33" s="4"/>
+      <c r="I33" s="2">
         <v>3</v>
       </c>
       <c r="J33" t="s">
@@ -1690,8 +1856,8 @@
       <c r="M33">
         <v>1</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="Q33" s="5">
+      <c r="O33" s="4"/>
+      <c r="Q33" s="2">
         <v>3</v>
       </c>
       <c r="R33" t="s">
@@ -1705,7 +1871,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>4</v>
       </c>
       <c r="B34" t="s">
@@ -1717,8 +1883,8 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="I34" s="5">
+      <c r="G34" s="4"/>
+      <c r="I34" s="2">
         <v>4</v>
       </c>
       <c r="J34" t="s">
@@ -1730,8 +1896,8 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="Q34" s="5">
+      <c r="O34" s="4"/>
+      <c r="Q34" s="2">
         <v>4</v>
       </c>
       <c r="R34" t="s">
@@ -1745,7 +1911,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>5</v>
       </c>
       <c r="B35" t="s">
@@ -1757,8 +1923,8 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="I35" s="5">
+      <c r="G35" s="4"/>
+      <c r="I35" s="2">
         <v>5</v>
       </c>
       <c r="J35" t="s">
@@ -1770,8 +1936,8 @@
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="Q35" s="5">
+      <c r="O35" s="4"/>
+      <c r="Q35" s="2">
         <v>5</v>
       </c>
       <c r="R35" t="s">
@@ -1785,38 +1951,38 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
         <v>6</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="Q36" s="5">
+      <c r="O36" s="4"/>
+      <c r="Q36" s="2">
         <v>6</v>
       </c>
       <c r="R36" t="s">
         <v>14</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U36">
@@ -1824,7 +1990,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>7</v>
       </c>
       <c r="B37" t="s">
@@ -1833,10 +1999,10 @@
       <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
         <v>7</v>
       </c>
       <c r="J37" t="s">
@@ -1848,8 +2014,8 @@
       <c r="N37">
         <v>1</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="Q37" s="5">
+      <c r="O37" s="4"/>
+      <c r="Q37" s="2">
         <v>7</v>
       </c>
       <c r="R37" t="s">
@@ -1863,7 +2029,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>8</v>
       </c>
       <c r="B38" t="s">
@@ -1875,8 +2041,8 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="I38" s="5">
+      <c r="G38" s="4"/>
+      <c r="I38" s="2">
         <v>8</v>
       </c>
       <c r="J38" t="s">
@@ -1888,8 +2054,8 @@
       <c r="M38">
         <v>1</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="Q38" s="5">
+      <c r="O38" s="4"/>
+      <c r="Q38" s="2">
         <v>8</v>
       </c>
       <c r="R38" t="s">
@@ -1903,7 +2069,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>9</v>
       </c>
       <c r="B39" t="s">
@@ -1915,8 +2081,8 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="I39" s="5">
+      <c r="G39" s="4"/>
+      <c r="I39" s="2">
         <v>9</v>
       </c>
       <c r="J39" t="s">
@@ -1928,8 +2094,8 @@
       <c r="M39">
         <v>1</v>
       </c>
-      <c r="O39" s="7"/>
-      <c r="Q39" s="5">
+      <c r="O39" s="4"/>
+      <c r="Q39" s="2">
         <v>9</v>
       </c>
       <c r="R39" t="s">
@@ -1943,7 +2109,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>10</v>
       </c>
       <c r="B40" t="s">
@@ -1955,8 +2121,8 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="I40" s="5">
+      <c r="G40" s="4"/>
+      <c r="I40" s="2">
         <v>10</v>
       </c>
       <c r="J40" t="s">
@@ -1968,8 +2134,8 @@
       <c r="M40">
         <v>1</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="Q40" s="5">
+      <c r="O40" s="4"/>
+      <c r="Q40" s="2">
         <v>10</v>
       </c>
       <c r="R40" t="s">
@@ -1983,39 +2149,39 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="I41" s="5">
+      <c r="G41" s="4"/>
+      <c r="I41" s="2">
         <v>11</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
-      <c r="O41" s="7"/>
-      <c r="Q41" s="5">
+      <c r="O41" s="4"/>
+      <c r="Q41" s="2">
         <v>11</v>
       </c>
       <c r="R41" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="S41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="W41">
@@ -2023,7 +2189,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>12</v>
       </c>
       <c r="B42" t="s">
@@ -2035,8 +2201,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="I42" s="5">
+      <c r="G42" s="4"/>
+      <c r="I42" s="2">
         <v>12</v>
       </c>
       <c r="J42" t="s">
@@ -2048,8 +2214,8 @@
       <c r="M42">
         <v>1</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="Q42" s="5">
+      <c r="O42" s="4"/>
+      <c r="Q42" s="2">
         <v>12</v>
       </c>
       <c r="R42" t="s">
@@ -2063,7 +2229,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>13</v>
       </c>
       <c r="B43" t="s">
@@ -2075,8 +2241,8 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="I43" s="5">
+      <c r="G43" s="4"/>
+      <c r="I43" s="2">
         <v>13</v>
       </c>
       <c r="J43" t="s">
@@ -2088,8 +2254,8 @@
       <c r="M43">
         <v>1</v>
       </c>
-      <c r="O43" s="7"/>
-      <c r="Q43" s="5">
+      <c r="O43" s="4"/>
+      <c r="Q43" s="2">
         <v>13</v>
       </c>
       <c r="R43" t="s">
@@ -2103,7 +2269,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>14</v>
       </c>
       <c r="B44" t="s">
@@ -2115,8 +2281,8 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="I44" s="5">
+      <c r="G44" s="4"/>
+      <c r="I44" s="2">
         <v>14</v>
       </c>
       <c r="J44" t="s">
@@ -2128,8 +2294,8 @@
       <c r="M44">
         <v>1</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="Q44" s="5">
+      <c r="O44" s="4"/>
+      <c r="Q44" s="2">
         <v>14</v>
       </c>
       <c r="R44" t="s">
@@ -2143,7 +2309,7 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>15</v>
       </c>
       <c r="B45" t="s">
@@ -2155,8 +2321,8 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="I45" s="5">
+      <c r="G45" s="4"/>
+      <c r="I45" s="2">
         <v>15</v>
       </c>
       <c r="J45" t="s">
@@ -2168,8 +2334,8 @@
       <c r="M45">
         <v>1</v>
       </c>
-      <c r="O45" s="7"/>
-      <c r="Q45" s="5">
+      <c r="O45" s="4"/>
+      <c r="Q45" s="2">
         <v>15</v>
       </c>
       <c r="R45" t="s">
@@ -2183,39 +2349,39 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="I46" s="5">
+      <c r="G46" s="4"/>
+      <c r="I46" s="2">
         <v>16</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="Q46" s="5">
+      <c r="O46" s="4"/>
+      <c r="Q46" s="2">
         <v>16</v>
       </c>
       <c r="R46" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="S46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="W46">
@@ -2223,7 +2389,7 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>17</v>
       </c>
       <c r="B47" t="s">
@@ -2235,8 +2401,8 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="I47" s="5">
+      <c r="G47" s="4"/>
+      <c r="I47" s="2">
         <v>17</v>
       </c>
       <c r="J47" t="s">
@@ -2245,10 +2411,10 @@
       <c r="K47" t="s">
         <v>14</v>
       </c>
-      <c r="O47" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="5">
+      <c r="O47" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
         <v>17</v>
       </c>
       <c r="R47" t="s">
@@ -2262,7 +2428,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>18</v>
       </c>
       <c r="B48" t="s">
@@ -2274,8 +2440,8 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="I48" s="5">
+      <c r="G48" s="4"/>
+      <c r="I48" s="2">
         <v>18</v>
       </c>
       <c r="J48" t="s">
@@ -2284,10 +2450,10 @@
       <c r="K48" t="s">
         <v>14</v>
       </c>
-      <c r="O48" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="5">
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
         <v>18</v>
       </c>
       <c r="R48" t="s">
@@ -2301,7 +2467,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>19</v>
       </c>
       <c r="B49" t="s">
@@ -2313,8 +2479,8 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="I49" s="5">
+      <c r="G49" s="4"/>
+      <c r="I49" s="2">
         <v>19</v>
       </c>
       <c r="J49" t="s">
@@ -2326,8 +2492,8 @@
       <c r="M49">
         <v>1</v>
       </c>
-      <c r="O49" s="7"/>
-      <c r="Q49" s="5">
+      <c r="O49" s="4"/>
+      <c r="Q49" s="2">
         <v>19</v>
       </c>
       <c r="R49" t="s">
@@ -2341,7 +2507,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="2">
         <v>20</v>
       </c>
       <c r="B50" t="s">
@@ -2353,8 +2519,8 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="I50" s="5">
+      <c r="G50" s="4"/>
+      <c r="I50" s="2">
         <v>20</v>
       </c>
       <c r="J50" t="s">
@@ -2366,8 +2532,8 @@
       <c r="M50">
         <v>1</v>
       </c>
-      <c r="O50" s="7"/>
-      <c r="Q50" s="5">
+      <c r="O50" s="4"/>
+      <c r="Q50" s="2">
         <v>20</v>
       </c>
       <c r="R50" t="s">
@@ -2381,7 +2547,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D51">
@@ -2393,10 +2559,10 @@
       <c r="F51">
         <v>9</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="4">
         <v>2</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L51">
@@ -2408,10 +2574,10 @@
       <c r="N51">
         <v>3</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="4">
         <v>2</v>
       </c>
-      <c r="Q51" s="5" t="s">
+      <c r="Q51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="T51">
@@ -2427,8 +2593,165 @@
         <v>8</v>
       </c>
     </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="I52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="Q52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V53" s="10"/>
+      <c r="W53" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11">
+        <v>1</v>
+      </c>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="V54" s="11"/>
+      <c r="W54" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="50">
+    <mergeCell ref="Q52:W52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
     <mergeCell ref="A28:W28"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="I29:O29"/>
@@ -2436,7 +2759,15 @@
     <mergeCell ref="Q2:W2"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
